--- a/Testcase_template.xlsx
+++ b/Testcase_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Денис\Desktop\QA Tester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Денис\Documents\GitHub\1st_Repo_14.03.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EA7A9D-5B21-45F9-BDD7-C851CCB9FAAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8886D6-70BE-470F-9E15-FBF97CDFED95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -822,16 +822,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -840,10 +831,25 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -854,12 +860,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1122,15 +1122,15 @@
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
-      <c r="B3" s="49">
+      <c r="B3" s="45">
         <v>1</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="58" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="49" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1149,12 +1149,12 @@
     <row r="5" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="51">
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="46">
         <v>44262</v>
       </c>
     </row>
@@ -1181,12 +1181,12 @@
     <row r="8" spans="1:6" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="46"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="53"/>
     </row>
     <row r="9" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
@@ -1214,54 +1214,48 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="37"/>
       <c r="B11" s="38">
         <v>1</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="51">
-        <v>44262</v>
-      </c>
-      <c r="E11" s="54" t="s">
+      <c r="D11" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="40"/>
+    </row>
+    <row r="12" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37"/>
       <c r="B12" s="38">
         <v>2</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="51">
-        <v>44262</v>
-      </c>
-      <c r="E12" s="54" t="s">
+      <c r="D12" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="54" t="s">
-        <v>19</v>
-      </c>
+      <c r="F12" s="48"/>
     </row>
     <row r="13" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="37"/>
       <c r="B13" s="38">
         <v>3</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="51">
-        <v>44262</v>
-      </c>
-      <c r="E13" s="54" t="s">
+      <c r="D13" s="46"/>
+      <c r="E13" s="48" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="40"/>
@@ -2328,7 +2322,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2367,15 +2361,15 @@
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
-      <c r="B3" s="49">
+      <c r="B3" s="45">
         <v>2</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="58" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="49" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2394,12 +2388,12 @@
     <row r="5" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="51">
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="46">
         <v>44262</v>
       </c>
     </row>
@@ -2426,12 +2420,12 @@
     <row r="8" spans="1:6" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="46"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="53"/>
     </row>
     <row r="9" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
@@ -2459,42 +2453,40 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="37"/>
       <c r="B11" s="38">
         <v>1</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="51">
-        <v>44262</v>
-      </c>
-      <c r="E11" s="54" t="s">
+      <c r="D11" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="54" t="s">
-        <v>24</v>
-      </c>
+      <c r="F11" s="48"/>
     </row>
     <row r="12" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="37"/>
       <c r="B12" s="38">
         <v>2</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
     </row>
     <row r="13" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="37"/>
       <c r="B13" s="38">
         <v>3</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="54"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="40"/>
     </row>
     <row r="14" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3559,7 +3551,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3598,15 +3590,15 @@
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
-      <c r="B3" s="49">
+      <c r="B3" s="45">
         <v>3</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="58" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="49" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3625,12 +3617,12 @@
     <row r="5" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="51">
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="46">
         <v>44262</v>
       </c>
     </row>
@@ -3657,12 +3649,12 @@
     <row r="8" spans="1:6" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="46"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="53"/>
     </row>
     <row r="9" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
@@ -3690,88 +3682,78 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="37"/>
       <c r="B11" s="38">
         <v>1</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="51">
-        <v>44262</v>
-      </c>
-      <c r="E11" s="54" t="s">
+      <c r="D11" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="59" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="50"/>
+    </row>
+    <row r="12" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37"/>
       <c r="B12" s="38">
         <v>2</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="51">
-        <v>44262</v>
-      </c>
-      <c r="E12" s="54" t="s">
+      <c r="D12" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="54" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="48"/>
+    </row>
+    <row r="13" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37"/>
       <c r="B13" s="38">
         <v>3</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="51">
-        <v>44262</v>
-      </c>
-      <c r="E13" s="54" t="s">
+      <c r="D13" s="40"/>
+      <c r="E13" s="48" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="40"/>
     </row>
-    <row r="14" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="37"/>
       <c r="B14" s="38">
         <v>4</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="51">
-        <v>44262</v>
-      </c>
-      <c r="E14" s="54" t="s">
+      <c r="D14" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="40"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="37"/>
       <c r="B15" s="38">
         <v>5</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="51">
-        <v>44262</v>
-      </c>
-      <c r="E15" s="54" t="s">
+      <c r="D15" s="40"/>
+      <c r="E15" s="48" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="40"/>
@@ -3781,13 +3763,11 @@
       <c r="B16" s="38">
         <v>6</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="51">
-        <v>44262</v>
-      </c>
-      <c r="E16" s="54" t="s">
+      <c r="D16" s="46"/>
+      <c r="E16" s="48" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="40"/>
@@ -4809,7 +4789,7 @@
     <mergeCell ref="E8:F8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1" xr:uid="{E83B21DE-4760-47D5-B95B-FD8E680E862B}"/>
+    <hyperlink ref="D11" r:id="rId1" xr:uid="{6AC6867A-0D96-4AF8-8793-DE2182A90786}"/>
   </hyperlinks>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId2"/>
@@ -4826,8 +4806,8 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4866,15 +4846,15 @@
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
-      <c r="B3" s="49">
+      <c r="B3" s="45">
         <v>1</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58" t="s">
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="49" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4893,12 +4873,12 @@
     <row r="5" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="51">
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="46">
         <v>44262</v>
       </c>
     </row>
@@ -4925,12 +4905,12 @@
     <row r="8" spans="1:6" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="46"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="53"/>
     </row>
     <row r="9" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
@@ -4963,91 +4943,79 @@
       <c r="B11" s="38">
         <v>1</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="51">
-        <v>44262</v>
-      </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="59"/>
-    </row>
-    <row r="12" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="46"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="50"/>
+    </row>
+    <row r="12" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37"/>
       <c r="B12" s="38">
         <v>2</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="51">
-        <v>44262</v>
-      </c>
-      <c r="E12" s="54" t="s">
+      <c r="D12" s="48"/>
+      <c r="E12" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="54"/>
-    </row>
-    <row r="13" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="48"/>
+    </row>
+    <row r="13" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37"/>
       <c r="B13" s="38">
         <v>3</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="51">
-        <v>44262</v>
-      </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="59" t="s">
+      <c r="D13" s="50" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="48"/>
+      <c r="F13" s="50"/>
+    </row>
+    <row r="14" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="37"/>
       <c r="B14" s="38">
         <v>4</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="51">
-        <v>44262</v>
+      <c r="D14" s="48" t="s">
+        <v>19</v>
       </c>
       <c r="E14" s="40"/>
-      <c r="F14" s="54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="48"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="37"/>
       <c r="B15" s="38">
         <v>5</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="51">
-        <v>44262</v>
+      <c r="D15" s="48" t="s">
+        <v>19</v>
       </c>
       <c r="E15" s="40"/>
-      <c r="F15" s="54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F15" s="48"/>
+    </row>
+    <row r="16" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="37"/>
       <c r="B16" s="38">
         <v>6</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="51">
-        <v>44262</v>
-      </c>
-      <c r="E16" s="54" t="s">
+      <c r="D16" s="40"/>
+      <c r="E16" s="48" t="s">
         <v>50</v>
       </c>
       <c r="F16" s="40"/>
@@ -6069,7 +6037,7 @@
     <mergeCell ref="E8:F8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1" xr:uid="{6E056B99-35CE-4C28-AB3B-881CFB90BE03}"/>
+    <hyperlink ref="D13" r:id="rId1" xr:uid="{64A6CFF4-E608-4BBF-AF4D-2A667D5ED0AA}"/>
   </hyperlinks>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId2"/>
@@ -6086,8 +6054,8 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G12" sqref="F12:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6095,7 +6063,7 @@
     <col min="1" max="1" width="3" style="5" customWidth="1"/>
     <col min="2" max="2" width="7.88671875" style="5" customWidth="1"/>
     <col min="3" max="3" width="30.88671875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="30.88671875" style="5" customWidth="1"/>
     <col min="7" max="16384" width="14.44140625" style="5"/>
   </cols>
@@ -6126,15 +6094,15 @@
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
-      <c r="B3" s="49">
+      <c r="B3" s="45">
         <v>5</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="58" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="49" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6153,12 +6121,12 @@
     <row r="5" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="51">
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="46">
         <v>44262</v>
       </c>
     </row>
@@ -6185,12 +6153,12 @@
     <row r="8" spans="1:6" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="46"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="53"/>
     </row>
     <row r="9" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
@@ -6218,88 +6186,78 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="37"/>
       <c r="B11" s="38">
         <v>1</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="51">
-        <v>44262</v>
-      </c>
-      <c r="E11" s="54" t="s">
+      <c r="D11" s="40"/>
+      <c r="E11" s="48" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="40"/>
     </row>
-    <row r="12" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37"/>
       <c r="B12" s="38">
         <v>2</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="51">
-        <v>44262</v>
-      </c>
-      <c r="E12" s="54" t="s">
+      <c r="D12" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="50"/>
+    </row>
+    <row r="13" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37"/>
       <c r="B13" s="38">
         <v>3</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="51">
-        <v>44262</v>
-      </c>
-      <c r="E13" s="54" t="s">
+      <c r="D13" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F13" s="48"/>
+    </row>
+    <row r="14" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="37"/>
       <c r="B14" s="38">
         <v>4</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="51">
-        <v>44262</v>
-      </c>
-      <c r="E14" s="54" t="s">
+      <c r="D14" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="54" t="s">
-        <v>19</v>
-      </c>
+      <c r="F14" s="48"/>
     </row>
     <row r="15" spans="1:6" ht="81.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="37"/>
       <c r="B15" s="38">
         <v>5</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="51">
-        <v>44262</v>
-      </c>
-      <c r="E15" s="54" t="s">
+      <c r="D15" s="46"/>
+      <c r="E15" s="48" t="s">
         <v>60</v>
       </c>
       <c r="F15" s="40"/>
@@ -7331,7 +7289,7 @@
     <mergeCell ref="E8:F8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F12" r:id="rId1" xr:uid="{CCE3CB9A-6C33-463D-AB44-D0236D8E87B3}"/>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{EBE35F22-90A4-439D-BE00-22DEE16558E6}"/>
   </hyperlinks>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId2"/>
@@ -7349,7 +7307,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F11" sqref="F11:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7357,7 +7315,7 @@
     <col min="1" max="1" width="3" style="5" customWidth="1"/>
     <col min="2" max="2" width="7.88671875" style="5" customWidth="1"/>
     <col min="3" max="3" width="30.88671875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="30.88671875" style="5" customWidth="1"/>
     <col min="7" max="16384" width="14.44140625" style="5"/>
   </cols>
@@ -7388,15 +7346,15 @@
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
-      <c r="B3" s="49">
+      <c r="B3" s="45">
         <v>6</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="58" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="49" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7415,12 +7373,12 @@
     <row r="5" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="51">
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="46">
         <v>44262</v>
       </c>
     </row>
@@ -7447,12 +7405,12 @@
     <row r="8" spans="1:6" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="46"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="53"/>
     </row>
     <row r="9" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
@@ -7485,77 +7443,67 @@
       <c r="B11" s="38">
         <v>1</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="51">
-        <v>44262</v>
-      </c>
-      <c r="E11" s="54"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="40"/>
     </row>
-    <row r="12" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37"/>
       <c r="B12" s="38">
         <v>2</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="51">
-        <v>44262</v>
-      </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-    </row>
-    <row r="13" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+    </row>
+    <row r="13" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37"/>
       <c r="B13" s="38">
         <v>3</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="51">
-        <v>44262</v>
-      </c>
-      <c r="E13" s="54" t="s">
+      <c r="D13" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="59" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F13" s="50"/>
+    </row>
+    <row r="14" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="37"/>
       <c r="B14" s="38">
         <v>4</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="51">
-        <v>44262</v>
-      </c>
-      <c r="E14" s="54" t="s">
+      <c r="D14" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="48"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="37"/>
       <c r="B15" s="38">
         <v>5</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="51">
-        <v>44262</v>
-      </c>
-      <c r="E15" s="54" t="s">
+      <c r="D15" s="40"/>
+      <c r="E15" s="48" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="40"/>
@@ -8587,7 +8535,7 @@
     <mergeCell ref="E8:F8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1" xr:uid="{6422CC49-A383-466F-B0F7-B2FAFF363CA2}"/>
+    <hyperlink ref="D13" r:id="rId1" xr:uid="{B3809F40-B304-45D0-9F45-AA7E5E1F92D9}"/>
   </hyperlinks>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId2"/>
